--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-669449.1136219872</v>
+        <v>-672108.6317340002</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>199.6489764889963</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.68791694608933</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.41653965146595</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>129.2130159060377</v>
+        <v>125.2107864962078</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>92.75898734712185</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.4695545993227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>167.7713959730108</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.05510538238607</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>37.32751411520385</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>176.994956154544</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>106.1949878935075</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105458</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>70.40964990483397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>62.63443603047482</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922742</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>182.6589060852671</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>22.44547853568606</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>230.781875874152</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206846</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158751</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,25 +2524,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>174.7683347992604</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.00502760852073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>124.8808320771212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.060225937134</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.060225937134</v>
+        <v>1222.133023316231</v>
       </c>
       <c r="D2" t="n">
-        <v>914.3945931199664</v>
+        <v>863.8673247094805</v>
       </c>
       <c r="E2" t="n">
-        <v>528.6063405217222</v>
+        <v>478.0790721112363</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>67.0931673216287</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>67.0931673216287</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001256</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001256</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114679</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.2034880760486</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.2034880760486</v>
+        <v>1733.111475321975</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.9860105762135</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>695.7175605465236</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>545.6009211341878</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>397.6878275517947</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>250.7978800538844</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270445</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>673.0360657270445</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X7" t="n">
-        <v>673.0360657270445</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.9860105762135</v>
+        <v>864.6537434744305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.622812416484</v>
+        <v>702.7912425462207</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.622812416484</v>
+        <v>702.7912425462207</v>
       </c>
       <c r="D8" t="n">
-        <v>921.3571138097338</v>
+        <v>702.7912425462207</v>
       </c>
       <c r="E8" t="n">
-        <v>535.5688612114895</v>
+        <v>702.7912425462207</v>
       </c>
       <c r="F8" t="n">
-        <v>124.582956421882</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>112.9186101865749</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>112.9186101865749</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005981</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005981</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392296</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392296</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.622812416484</v>
+        <v>1089.391082610342</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101001</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866266</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042428</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2262.298126874724</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>918.7469765594642</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>385.6033379992172</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>237.690244416824</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>237.690244416824</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>237.690244416824</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>88.95134628033023</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1355.079929595591</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1100.395441389704</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W10" t="n">
-        <v>1100.395441389704</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395441389704</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y10" t="n">
-        <v>1100.395441389704</v>
+        <v>535.7199774115529</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,7 +5057,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5069,10 +5069,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2272.649715293767</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2272.649715293767</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.574488637965</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432078</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>187.8360202106533</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.941686997836</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.866460342034</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>868.6673633290523</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>699.7311804011454</v>
       </c>
       <c r="D19" t="n">
-        <v>527.7722521572603</v>
+        <v>549.6145409888096</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888096</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908992</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1499.097958200839</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1271.108407302822</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1050.315828159292</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029407</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898186995</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2424.290883039164</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2241.436048694068</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2021.834583717009</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1732.759357061207</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,64 +5975,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961526</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.15426255076</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273909</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273909</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684979</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649657</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888944</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.795837888944</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,43 +7154,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,22 +7351,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384025</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.8421700460941</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>168.7434581780649</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.5911984019036</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0340651316867</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>71.56289600583315</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.59034232754592</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.14103276810766</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856867</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>74.83129810813706</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>84.77391660561906</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.44497470121426</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.9958004224543</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.584653352101</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>83.79952661609434</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.8640922513239</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>43.9297681744356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.74112246243902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6.25795120238422</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.8269525734166</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>129.6605885985412</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>127.2568112467068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1013851.781090962</v>
+        <v>1013851.781090963</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1176462.009200633</v>
+        <v>1176462.009200632</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1176462.009200633</v>
+        <v>1176462.009200632</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26320,25 +26320,25 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="J2" t="n">
-        <v>242143.9799070019</v>
-      </c>
       <c r="K2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26347,10 +26347,10 @@
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.5309592851</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.0117225583</v>
+        <v>152035.0117225585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57631.22053938173</v>
+        <v>57631.22053938202</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707257</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707257</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707257</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707279</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707381</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707335</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707334</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707306</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="M4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980081</v>
       </c>
       <c r="N4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980081</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058049.656429677</v>
+        <v>-1058375.001519959</v>
       </c>
       <c r="C6" t="n">
         <v>21465.03168781556</v>
       </c>
       <c r="D6" t="n">
-        <v>21465.03168781512</v>
+        <v>21465.03168781532</v>
       </c>
       <c r="E6" t="n">
-        <v>-373361.4160381585</v>
+        <v>-373396.1539635945</v>
       </c>
       <c r="F6" t="n">
-        <v>134124.0255863874</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="G6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609518</v>
       </c>
       <c r="H6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="I6" t="n">
-        <v>134124.0255863873</v>
+        <v>134089.2876609517</v>
       </c>
       <c r="J6" t="n">
-        <v>-33481.15222359519</v>
+        <v>-33515.89014903083</v>
       </c>
       <c r="K6" t="n">
-        <v>134124.0255863874</v>
+        <v>134089.2876609518</v>
       </c>
       <c r="L6" t="n">
-        <v>134124.0255863874</v>
+        <v>134089.2876609516</v>
       </c>
       <c r="M6" t="n">
-        <v>-23774.88037698972</v>
+        <v>-23774.8803769899</v>
       </c>
       <c r="N6" t="n">
         <v>128260.1313455687</v>
       </c>
       <c r="O6" t="n">
-        <v>128260.1313455685</v>
+        <v>128260.1313455688</v>
       </c>
       <c r="P6" t="n">
-        <v>128260.1313455687</v>
+        <v>128260.1313455689</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,37 +26963,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241349</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>285.330635616316</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>277.6780727115798</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.6475963285077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.7679478717834</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>236.0598758649698</v>
+        <v>240.0621052747998</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>73.54761269768234</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11509875277213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>239.1046497687006</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>4.654807290084392</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>67.46908108869673</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>109.2321979666566</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28141,10 +28141,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.834409677975332e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567679e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-3.156165985012779e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-4.309707423610593e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.675087490642447e-13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,16 +32312,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,19 +32546,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334973</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32716,7 +32716,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159428</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>243.1729913598529</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>638.9422653403551</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.1088399635144</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,7 +34784,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5216991696265</v>
+        <v>443.0068759113671</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>559.9405577709388</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980277</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>303.0719207327581</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35960,16 +35960,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591383</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36215,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>496.3460208959107</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36680,13 +36680,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1270658774929</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
